--- a/Data/data_survival.xlsx
+++ b/Data/data_survival.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaubet\Desktop\Bonelli\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F4FF9E49-FC5E-467C-9891-49C73665A34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D444C-4DAF-447A-A02F-4369BD397E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_survival" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="109">
   <si>
     <t>Individu</t>
   </si>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1187,16 +1187,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1372,14 +1372,8 @@
       <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1431,14 +1425,8 @@
       <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +1488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1552,14 +1540,8 @@
       <c r="Q6" t="s">
         <v>32</v>
       </c>
-      <c r="R6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1614,11 +1596,8 @@
       <c r="R7" s="1">
         <v>44295</v>
       </c>
-      <c r="S7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1673,11 +1652,8 @@
       <c r="R8" s="1">
         <v>43554</v>
       </c>
-      <c r="S8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1739,7 +1715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1791,14 +1767,8 @@
       <c r="Q10" t="s">
         <v>22</v>
       </c>
-      <c r="R10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1850,14 +1820,8 @@
       <c r="Q11" t="s">
         <v>32</v>
       </c>
-      <c r="R11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1903,14 +1867,8 @@
       <c r="Q12" t="s">
         <v>22</v>
       </c>
-      <c r="R12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1959,11 +1917,8 @@
       <c r="R13" s="1">
         <v>43999</v>
       </c>
-      <c r="S13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2009,14 +1964,8 @@
       <c r="Q14" t="s">
         <v>22</v>
       </c>
-      <c r="R14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2062,14 +2011,8 @@
       <c r="Q15" t="s">
         <v>32</v>
       </c>
-      <c r="R15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2115,14 +2058,8 @@
       <c r="Q16" t="s">
         <v>22</v>
       </c>
-      <c r="R16" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2178,7 +2115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2224,14 +2161,8 @@
       <c r="Q18" t="s">
         <v>22</v>
       </c>
-      <c r="R18" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2277,14 +2208,8 @@
       <c r="Q19" t="s">
         <v>32</v>
       </c>
-      <c r="R19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2330,14 +2255,8 @@
       <c r="Q20" t="s">
         <v>22</v>
       </c>
-      <c r="R20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2383,17 +2302,11 @@
       <c r="Q21" t="s">
         <v>32</v>
       </c>
-      <c r="R21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" t="s">
-        <v>23</v>
-      </c>
       <c r="T21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2439,14 +2352,8 @@
       <c r="Q22" t="s">
         <v>22</v>
       </c>
-      <c r="R22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2495,11 +2402,8 @@
       <c r="R23" s="1">
         <v>44006</v>
       </c>
-      <c r="S23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2545,14 +2449,8 @@
       <c r="Q24" t="s">
         <v>22</v>
       </c>
-      <c r="R24" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2598,14 +2496,8 @@
       <c r="Q25" t="s">
         <v>32</v>
       </c>
-      <c r="R25" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2645,14 +2537,8 @@
       <c r="Q26" t="s">
         <v>22</v>
       </c>
-      <c r="R26" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2692,14 +2578,8 @@
       <c r="Q27" t="s">
         <v>32</v>
       </c>
-      <c r="R27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2739,14 +2619,8 @@
       <c r="Q28" t="s">
         <v>22</v>
       </c>
-      <c r="R28" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2789,11 +2663,8 @@
       <c r="R29" s="1">
         <v>44583</v>
       </c>
-      <c r="S29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2836,11 +2707,8 @@
       <c r="R30" s="1">
         <v>43970</v>
       </c>
-      <c r="S30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2880,14 +2748,8 @@
       <c r="Q31" t="s">
         <v>32</v>
       </c>
-      <c r="R31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2927,14 +2789,8 @@
       <c r="Q32" t="s">
         <v>22</v>
       </c>
-      <c r="R32" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2974,14 +2830,8 @@
       <c r="Q33" t="s">
         <v>22</v>
       </c>
-      <c r="R33" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3021,14 +2871,8 @@
       <c r="Q34" t="s">
         <v>23</v>
       </c>
-      <c r="R34" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3068,14 +2912,8 @@
       <c r="Q35" t="s">
         <v>22</v>
       </c>
-      <c r="R35" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -3115,14 +2953,8 @@
       <c r="Q36" t="s">
         <v>22</v>
       </c>
-      <c r="R36" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -3162,14 +2994,8 @@
       <c r="Q37" t="s">
         <v>22</v>
       </c>
-      <c r="R37" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -3209,14 +3035,8 @@
       <c r="Q38" t="s">
         <v>22</v>
       </c>
-      <c r="R38" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -3256,14 +3076,8 @@
       <c r="Q39" t="s">
         <v>22</v>
       </c>
-      <c r="R39" t="s">
-        <v>23</v>
-      </c>
-      <c r="S39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3306,11 +3120,8 @@
       <c r="R40" s="1">
         <v>44595</v>
       </c>
-      <c r="S40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -3350,14 +3161,8 @@
       <c r="Q41" t="s">
         <v>22</v>
       </c>
-      <c r="R41" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -3397,14 +3202,8 @@
       <c r="Q42" t="s">
         <v>22</v>
       </c>
-      <c r="R42" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -3454,7 +3253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -3488,14 +3287,8 @@
       <c r="Q44" t="s">
         <v>22</v>
       </c>
-      <c r="R44" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -3529,14 +3322,8 @@
       <c r="Q45" t="s">
         <v>22</v>
       </c>
-      <c r="R45" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -3570,14 +3357,8 @@
       <c r="Q46" t="s">
         <v>23</v>
       </c>
-      <c r="R46" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -3621,7 +3402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3658,11 +3439,8 @@
       <c r="R48" s="1">
         <v>45007</v>
       </c>
-      <c r="S48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -3696,14 +3474,8 @@
       <c r="Q49" t="s">
         <v>22</v>
       </c>
-      <c r="R49" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -3737,14 +3509,8 @@
       <c r="Q50" t="s">
         <v>32</v>
       </c>
-      <c r="R50" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3778,14 +3544,8 @@
       <c r="Q51" t="s">
         <v>22</v>
       </c>
-      <c r="R51" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -3819,14 +3579,8 @@
       <c r="Q52" t="s">
         <v>22</v>
       </c>
-      <c r="R52" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3860,14 +3614,8 @@
       <c r="Q53" t="s">
         <v>22</v>
       </c>
-      <c r="R53" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -3901,14 +3649,8 @@
       <c r="Q54" t="s">
         <v>23</v>
       </c>
-      <c r="R54" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -3942,14 +3684,8 @@
       <c r="Q55" t="s">
         <v>22</v>
       </c>
-      <c r="R55" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -3977,14 +3713,8 @@
       <c r="Q56" t="s">
         <v>23</v>
       </c>
-      <c r="R56" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4012,14 +3742,8 @@
       <c r="Q57" t="s">
         <v>23</v>
       </c>
-      <c r="R57" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -4050,11 +3774,8 @@
       <c r="R58" s="1">
         <v>45314</v>
       </c>
-      <c r="S58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -4082,14 +3803,8 @@
       <c r="Q59" t="s">
         <v>32</v>
       </c>
-      <c r="R59" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -4120,11 +3835,8 @@
       <c r="R60" s="1">
         <v>45024</v>
       </c>
-      <c r="S60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -4152,14 +3864,8 @@
       <c r="Q61" t="s">
         <v>23</v>
       </c>
-      <c r="R61" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -4187,14 +3893,8 @@
       <c r="Q62" t="s">
         <v>22</v>
       </c>
-      <c r="R62" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -4225,11 +3925,8 @@
       <c r="R63" s="1">
         <v>44930</v>
       </c>
-      <c r="S63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -4257,14 +3954,8 @@
       <c r="Q64" t="s">
         <v>23</v>
       </c>
-      <c r="R64" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -4292,14 +3983,8 @@
       <c r="Q65" t="s">
         <v>23</v>
       </c>
-      <c r="R65" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -4327,14 +4012,8 @@
       <c r="Q66" t="s">
         <v>23</v>
       </c>
-      <c r="R66" t="s">
-        <v>23</v>
-      </c>
-      <c r="S66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -4362,14 +4041,8 @@
       <c r="Q67" t="s">
         <v>32</v>
       </c>
-      <c r="R67" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -4397,14 +4070,8 @@
       <c r="Q68" t="s">
         <v>22</v>
       </c>
-      <c r="R68" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -4432,14 +4099,8 @@
       <c r="Q69" t="s">
         <v>23</v>
       </c>
-      <c r="R69" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -4467,14 +4128,8 @@
       <c r="Q70" t="s">
         <v>32</v>
       </c>
-      <c r="R70" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>102</v>
       </c>
@@ -4496,14 +4151,8 @@
       <c r="Q71" t="s">
         <v>22</v>
       </c>
-      <c r="R71" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -4525,14 +4174,8 @@
       <c r="Q72" t="s">
         <v>22</v>
       </c>
-      <c r="R72" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -4554,14 +4197,8 @@
       <c r="Q73" t="s">
         <v>22</v>
       </c>
-      <c r="R73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>105</v>
       </c>
@@ -4583,14 +4220,8 @@
       <c r="Q74" t="s">
         <v>23</v>
       </c>
-      <c r="R74" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -4612,14 +4243,8 @@
       <c r="Q75" t="s">
         <v>23</v>
       </c>
-      <c r="R75" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -4641,14 +4266,8 @@
       <c r="Q76" t="s">
         <v>23</v>
       </c>
-      <c r="R76" t="s">
-        <v>23</v>
-      </c>
-      <c r="S76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>108</v>
       </c>
@@ -4668,12 +4287,6 @@
         <v>22</v>
       </c>
       <c r="Q77" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" t="s">
         <v>23</v>
       </c>
     </row>
